--- a/doc/descriptions/Инструктивные письма.xlsx
+++ b/doc/descriptions/Инструктивные письма.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B870E-A412-43CD-A9ED-BC15D3C93507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9386802C-44E1-4723-9F5B-0777D019B44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BC3DDA15-8848-4380-AF2F-70942B8526E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BC3DDA15-8848-4380-AF2F-70942B8526E4}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="104">
   <si>
     <t>Перечень писем</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Замена</t>
+  </si>
+  <si>
+    <t>Удалить</t>
   </si>
 </sst>
 </file>
@@ -3245,7 +3248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BDB042-7774-43A3-9FDA-F67F9109D2F5}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -4733,8 +4736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D94B58-B47C-4A72-BE42-281A55EE157E}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6007,10 +6010,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B2F9AC-785A-4373-A8E0-934FB15E4125}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,6 +6359,14 @@
         <v>101</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="112">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/descriptions/Инструктивные письма.xlsx
+++ b/doc/descriptions/Инструктивные письма.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9386802C-44E1-4723-9F5B-0777D019B44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA9A4C-E25F-421C-B82A-F5A7DAAD91FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BC3DDA15-8848-4380-AF2F-70942B8526E4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BC3DDA15-8848-4380-AF2F-70942B8526E4}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -4736,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D94B58-B47C-4A72-BE42-281A55EE157E}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -6012,8 +6012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B2F9AC-785A-4373-A8E0-934FB15E4125}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
